--- a/ec_2025_faro/xlsx/gasto_por_partido_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_por_partido_all.xlsx
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1953</v>
+        <v>3405.5</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>23652.79</v>
+        <v>24445.67</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>20168.5</v>
+        <v>18868</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>54318.5</v>
+        <v>54513</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>820475.29</v>
+        <v>1049568.63</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>69437.17999999999</v>
+        <v>138006.82</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>6799.5</v>
+        <v>7493.5</v>
       </c>
     </row>
     <row r="11">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7695.5</v>
+        <v>9578.5</v>
       </c>
     </row>
     <row r="12">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>12770.43</v>
+        <v>21456.49</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>228.06</v>
+        <v>413.6</v>
       </c>
     </row>
     <row r="14">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>28835.35</v>
+        <v>47312.69</v>
       </c>
     </row>
     <row r="15">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3597.81</v>
+        <v>3619.08</v>
       </c>
     </row>
     <row r="16">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1534.5</v>
+        <v>1633.5</v>
       </c>
     </row>
     <row r="17">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5296.5</v>
+        <v>5692.5</v>
       </c>
     </row>
     <row r="18">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2057.88</v>
+        <v>5030.08</v>
       </c>
     </row>
     <row r="19">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5.64</v>
+        <v>6.29</v>
       </c>
     </row>
     <row r="20">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>15140.5</v>
+        <v>15840.5</v>
       </c>
     </row>
     <row r="21">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>11355.5</v>
+        <v>11655.5</v>
       </c>
     </row>
     <row r="22">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>13849.04</v>
+        <v>24618.1</v>
       </c>
     </row>
     <row r="23">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>70.98999999999999</v>
+        <v>73.75</v>
       </c>
     </row>
     <row r="24">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>18347.56</v>
+        <v>44814.43</v>
       </c>
     </row>
     <row r="27">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3713.46</v>
+        <v>6388.46</v>
       </c>
     </row>
     <row r="29">
@@ -867,7 +867,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>169.54</v>
+        <v>345.59</v>
       </c>
     </row>
     <row r="30">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>21108.18</v>
+        <v>46718.21</v>
       </c>
     </row>
     <row r="31">
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5.82</v>
+        <v>19.38</v>
       </c>
     </row>
     <row r="32">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>20676.25</v>
+        <v>44282.16</v>
       </c>
     </row>
     <row r="33">
@@ -927,7 +927,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1574.32</v>
+        <v>1584.74</v>
       </c>
     </row>
     <row r="34">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>365.35</v>
+        <v>1057.35</v>
       </c>
     </row>
     <row r="35">
@@ -957,7 +957,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.66</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="36">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>30004</v>
+        <v>33395</v>
       </c>
     </row>
     <row r="37">
@@ -987,7 +987,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>36743</v>
+        <v>40931</v>
       </c>
     </row>
     <row r="38">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2652.54</v>
+        <v>4644.63</v>
       </c>
     </row>
     <row r="39">
@@ -1017,7 +1017,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>245.54</v>
+        <v>253.55</v>
       </c>
     </row>
     <row r="40">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>284.52</v>
+        <v>678.1</v>
       </c>
     </row>
     <row r="41">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>27011.12</v>
+        <v>150948.25</v>
       </c>
     </row>
     <row r="43">
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>205.09</v>
+        <v>383.4</v>
       </c>
     </row>
     <row r="44">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1591</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="45">
@@ -1107,7 +1107,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1591</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="46">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5262.9</v>
+        <v>9457.719999999999</v>
       </c>
     </row>
   </sheetData>

--- a/ec_2025_faro/xlsx/gasto_por_partido_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_por_partido_all.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3405.5</v>
+        <v>3703.5</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>24445.67</v>
+        <v>24445.95</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>18868</v>
+        <v>20867.5</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>54513</v>
+        <v>56711.5</v>
       </c>
     </row>
     <row r="8">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>21456.49</v>
+        <v>21494.95</v>
       </c>
     </row>
     <row r="13">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>47312.69</v>
+        <v>47927.35</v>
       </c>
     </row>
     <row r="15">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3619.08</v>
+        <v>3619.39</v>
       </c>
     </row>
     <row r="16">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5030.08</v>
+        <v>5062.91</v>
       </c>
     </row>
     <row r="19">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>6.29</v>
+        <v>6.59</v>
       </c>
     </row>
     <row r="20">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>24618.1</v>
+        <v>24703.86</v>
       </c>
     </row>
     <row r="23">
@@ -867,7 +867,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>345.59</v>
+        <v>348.23</v>
       </c>
     </row>
     <row r="30">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>46718.21</v>
+        <v>46757.35</v>
       </c>
     </row>
     <row r="31">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>44282.16</v>
+        <v>47328.09</v>
       </c>
     </row>
     <row r="33">
@@ -927,7 +927,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1584.74</v>
+        <v>2144.26</v>
       </c>
     </row>
     <row r="34">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1057.35</v>
+        <v>1098.49</v>
       </c>
     </row>
     <row r="35">
@@ -957,7 +957,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1.2</v>
+        <v>3.72</v>
       </c>
     </row>
     <row r="36">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>33395</v>
+        <v>34335.5</v>
       </c>
     </row>
     <row r="37">
@@ -987,7 +987,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>40931</v>
+        <v>42168.5</v>
       </c>
     </row>
     <row r="38">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4644.63</v>
+        <v>4803.93</v>
       </c>
     </row>
     <row r="39">
@@ -1017,7 +1017,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>253.55</v>
+        <v>256.14</v>
       </c>
     </row>
     <row r="40">
@@ -1062,37 +1062,37 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>150948.25</v>
+        <v>152123.75</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Partido Sociedad Unida Más Acción (SUMA)</t>
+          <t>Partido Sociedad Patriótica 21 De Enero (PSP)</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>383.4</v>
+        <v>10489.1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Partido Unidad Popular (UP)</t>
+          <t>Partido Sociedad Unida Más Acción (SUMA)</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1641</v>
+        <v>385.88</v>
       </c>
     </row>
     <row r="45">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -1118,10 +1118,25 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C46" t="n">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Partido Unidad Popular (UP)</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
         <v>9457.719999999999</v>
       </c>
     </row>

--- a/ec_2025_faro/xlsx/gasto_por_partido_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_por_partido_all.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1140,6 +1140,66 @@
         <v>9457.719999999999</v>
       </c>
     </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Todos</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>82706.5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Todos</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>128342.5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Todos</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>1466297.4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Todos</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>182668.76</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/ec_2025_faro/xlsx/gasto_por_partido_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_por_partido_all.xlsx
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3703.5</v>
+        <v>7763</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>24445.95</v>
+        <v>24446.09</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>20867.5</v>
+        <v>21817.5</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>56711.5</v>
+        <v>58561.5</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1049568.63</v>
+        <v>1186825.51</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>138006.82</v>
+        <v>172331.08</v>
       </c>
     </row>
     <row r="10">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>21494.95</v>
+        <v>24338.94</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>413.6</v>
+        <v>501.88</v>
       </c>
     </row>
     <row r="14">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>47927.35</v>
+        <v>55500.37</v>
       </c>
     </row>
     <row r="15">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3619.39</v>
+        <v>3621.35</v>
       </c>
     </row>
     <row r="16">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1633.5</v>
+        <v>1732.5</v>
       </c>
     </row>
     <row r="17">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5692.5</v>
+        <v>5791.5</v>
       </c>
     </row>
     <row r="18">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5062.91</v>
+        <v>6069.23</v>
       </c>
     </row>
     <row r="19">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>6.59</v>
+        <v>6.91</v>
       </c>
     </row>
     <row r="20">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>15840.5</v>
+        <v>16438</v>
       </c>
     </row>
     <row r="21">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>11655.5</v>
+        <v>12054</v>
       </c>
     </row>
     <row r="22">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>24703.86</v>
+        <v>27876.7</v>
       </c>
     </row>
     <row r="23">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>44814.43</v>
+        <v>54933.1</v>
       </c>
     </row>
     <row r="27">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>6388.46</v>
+        <v>7229.26</v>
       </c>
     </row>
     <row r="29">
@@ -867,7 +867,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>348.23</v>
+        <v>436.45</v>
       </c>
     </row>
     <row r="30">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>46757.35</v>
+        <v>53633.39</v>
       </c>
     </row>
     <row r="31">
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>19.38</v>
+        <v>26.16</v>
       </c>
     </row>
     <row r="32">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>47328.09</v>
+        <v>56971.06</v>
       </c>
     </row>
     <row r="33">
@@ -927,7 +927,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2144.26</v>
+        <v>2785.92</v>
       </c>
     </row>
     <row r="34">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1098.49</v>
+        <v>1396.04</v>
       </c>
     </row>
     <row r="35">
@@ -957,7 +957,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3.72</v>
+        <v>6.58</v>
       </c>
     </row>
     <row r="36">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>34335.5</v>
+        <v>34934.5</v>
       </c>
     </row>
     <row r="37">
@@ -987,7 +987,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>42168.5</v>
+        <v>42767.5</v>
       </c>
     </row>
     <row r="38">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4803.93</v>
+        <v>5593.43</v>
       </c>
     </row>
     <row r="39">
@@ -1017,7 +1017,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>256.14</v>
+        <v>259.53</v>
       </c>
     </row>
     <row r="40">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>678.1</v>
+        <v>749.21</v>
       </c>
     </row>
     <row r="41">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>152123.75</v>
+        <v>178812.56</v>
       </c>
     </row>
     <row r="43">
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>10489.1</v>
+        <v>15945.15</v>
       </c>
     </row>
     <row r="44">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>385.88</v>
+        <v>467.84</v>
       </c>
     </row>
     <row r="45">
@@ -1137,7 +1137,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>9457.719999999999</v>
+        <v>10896.5</v>
       </c>
     </row>
     <row r="48">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>82706.5</v>
+        <v>84952</v>
       </c>
     </row>
     <row r="49">
@@ -1167,7 +1167,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>128342.5</v>
+        <v>131289</v>
       </c>
     </row>
     <row r="50">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1466297.4</v>
+        <v>1679056.14</v>
       </c>
     </row>
     <row r="51">
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>182668.76</v>
+        <v>223282.68</v>
       </c>
     </row>
   </sheetData>

--- a/ec_2025_faro/xlsx/gasto_por_partido_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_por_partido_all.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7763</v>
+        <v>93332.5</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>24446.09</v>
+        <v>36798.39</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>21817.5</v>
+        <v>25862</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>58561.5</v>
+        <v>68298</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1186825.51</v>
+        <v>1514058.29</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>172331.08</v>
+        <v>206707.58</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>7493.5</v>
+        <v>7988.5</v>
       </c>
     </row>
     <row r="11">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>9578.5</v>
+        <v>10370.5</v>
       </c>
     </row>
     <row r="12">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>24338.94</v>
+        <v>34284.32</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>501.88</v>
+        <v>625.3099999999999</v>
       </c>
     </row>
     <row r="14">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>55500.37</v>
+        <v>76848.78999999999</v>
       </c>
     </row>
     <row r="15">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3621.35</v>
+        <v>3660.96</v>
       </c>
     </row>
     <row r="16">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1732.5</v>
+        <v>1831.5</v>
       </c>
     </row>
     <row r="17">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5791.5</v>
+        <v>6187.5</v>
       </c>
     </row>
     <row r="18">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>6069.23</v>
+        <v>9238.860000000001</v>
       </c>
     </row>
     <row r="19">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>6.91</v>
+        <v>7.53</v>
       </c>
     </row>
     <row r="20">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>16438</v>
+        <v>18437</v>
       </c>
     </row>
     <row r="21">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>12054</v>
+        <v>13753</v>
       </c>
     </row>
     <row r="22">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>27876.7</v>
+        <v>36986.97</v>
       </c>
     </row>
     <row r="23">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>845.5</v>
+        <v>895</v>
       </c>
     </row>
     <row r="25">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>845.5</v>
+        <v>895</v>
       </c>
     </row>
     <row r="26">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>54933.1</v>
+        <v>90997.67999999999</v>
       </c>
     </row>
     <row r="27">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>7229.26</v>
+        <v>9918.059999999999</v>
       </c>
     </row>
     <row r="29">
@@ -867,7 +867,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>436.45</v>
+        <v>493.81</v>
       </c>
     </row>
     <row r="30">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>53633.39</v>
+        <v>86898.7</v>
       </c>
     </row>
     <row r="31">
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>26.16</v>
+        <v>32.9</v>
       </c>
     </row>
     <row r="32">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>56971.06</v>
+        <v>92664.23</v>
       </c>
     </row>
     <row r="33">
@@ -927,7 +927,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2785.92</v>
+        <v>3973.28</v>
       </c>
     </row>
     <row r="34">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1396.04</v>
+        <v>2140.27</v>
       </c>
     </row>
     <row r="35">
@@ -957,7 +957,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>6.58</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="36">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>34934.5</v>
+        <v>38006</v>
       </c>
     </row>
     <row r="37">
@@ -987,7 +987,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>42767.5</v>
+        <v>46930</v>
       </c>
     </row>
     <row r="38">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5593.43</v>
+        <v>7816.47</v>
       </c>
     </row>
     <row r="39">
@@ -1017,7 +1017,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>259.53</v>
+        <v>285.7</v>
       </c>
     </row>
     <row r="40">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>749.21</v>
+        <v>941.05</v>
       </c>
     </row>
     <row r="41">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>178812.56</v>
+        <v>262212.04</v>
       </c>
     </row>
     <row r="43">
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>15945.15</v>
+        <v>21312.6</v>
       </c>
     </row>
     <row r="44">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>467.84</v>
+        <v>704.73</v>
       </c>
     </row>
     <row r="45">
@@ -1137,22 +1137,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>10896.5</v>
+        <v>15529.37</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Todos</t>
+          <t>Partido Unidad Popular (UP)</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>84952</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="49">
@@ -1163,11 +1163,11 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>131289</v>
+        <v>94710.5</v>
       </c>
     </row>
     <row r="50">
@@ -1178,11 +1178,11 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1679056.14</v>
+        <v>148124.5</v>
       </c>
     </row>
     <row r="51">
@@ -1193,11 +1193,26 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>223282.68</v>
+        <v>2334572.33</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Todos</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>276826.48</v>
       </c>
     </row>
   </sheetData>

--- a/ec_2025_faro/xlsx/gasto_por_partido_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_por_partido_all.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Partido o Movimiento Político</t>
+          <t>Binomio Presidencial</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Alianza Revolución Ciudadana - Reto (RC/RETO)</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>49.5</v>
+        <v>25862</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Alianza Revolución Ciudadana - Reto (RC/RETO)</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -477,13 +477,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>49.5</v>
+        <v>68298</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Alianza Revolución Ciudadana - Reto (RC/RETO)</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -492,13 +492,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>93332.5</v>
+        <v>1514058.29</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Alianza Revolución Ciudadana - Reto (RC/RETO)</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -507,13 +507,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>36798.39</v>
+        <v>206707.58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Movimiento Accion Democratica Nacional (ADN)</t>
+          <t>(AMIGO) - J. Cueva - C. Reyes</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>25862</v>
+        <v>7988.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Movimiento Accion Democratica Nacional (ADN)</t>
+          <t>(AMIGO) - J. Cueva - C. Reyes</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>68298</v>
+        <v>10370.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Movimiento Accion Democratica Nacional (ADN)</t>
+          <t>(AMIGO) - J. Cueva - C. Reyes</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -552,13 +552,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1514058.29</v>
+        <v>34284.32</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Movimiento Accion Democratica Nacional (ADN)</t>
+          <t>(AMIGO) - J. Cueva - C. Reyes</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -567,43 +567,43 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>206707.58</v>
+        <v>625.3099999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Movimiento Acción Movilizadora Independiente Generando Oportunidades (AMIGO)</t>
+          <t>(AVANZA) - L. Tilleria - K. Rosero</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>7988.5</v>
+        <v>92748.72</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Movimiento Acción Movilizadora Independiente Generando Oportunidades (AMIGO)</t>
+          <t>(AVANZA) - L. Tilleria - K. Rosero</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>10370.5</v>
+        <v>3974.09</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Movimiento Acción Movilizadora Independiente Generando Oportunidades (AMIGO)</t>
+          <t>(CD) - J. Jairala - L. Vallecilla</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -612,13 +612,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>34284.32</v>
+        <v>76878.35000000001</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Movimiento Acción Movilizadora Independiente Generando Oportunidades (AMIGO)</t>
+          <t>(CD) - J. Jairala - L. Vallecilla</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -627,133 +627,133 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>625.3099999999999</v>
+        <v>3668.94</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Movimiento Centro Democrático (CD)</t>
+          <t>(CONSTRUYE) - H. Cucalón - C. Larrea</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>76848.78999999999</v>
+        <v>1831.5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Movimiento Centro Democrático (CD)</t>
+          <t>(CONSTRUYE) - H. Cucalón - C. Larrea</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3660.96</v>
+        <v>6187.5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Movimiento Construye (CONSTRUYE)</t>
+          <t>(CONSTRUYE) - H. Cucalón - C. Larrea</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1831.5</v>
+        <v>9238.860000000001</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Movimiento Construye (CONSTRUYE)</t>
+          <t>(CONSTRUYE) - H. Cucalón - C. Larrea</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>6187.5</v>
+        <v>7.53</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Movimiento Construye (CONSTRUYE)</t>
+          <t>(CREO) - F. Tabacchi - B. Sacancela</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>9238.860000000001</v>
+        <v>18437</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Movimiento Construye (CONSTRUYE)</t>
+          <t>(CREO) - F. Tabacchi - B. Sacancela</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>7.53</v>
+        <v>13753</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Movimiento Creando Oportunidades (CREO)</t>
+          <t>(CREO) - F. Tabacchi - B. Sacancela</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>18437</v>
+        <v>36986.97</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Movimiento Creando Oportunidades (CREO)</t>
+          <t>(CREO) - F. Tabacchi - B. Sacancela</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>13753</v>
+        <v>73.75</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Movimiento Creando Oportunidades (CREO)</t>
+          <t>(DSI) - I. Saquicela - M. Coello</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -762,13 +762,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>36986.97</v>
+        <v>9918.059999999999</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Movimiento Creando Oportunidades (CREO)</t>
+          <t>(DSI) - I. Saquicela - M. Coello</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -777,73 +777,73 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>73.75</v>
+        <v>495.69</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Movimiento De Unidad Plurinacional PACHAKUTIK (MUPP)</t>
+          <t>(ID) - C. Rabascall - A. Rivas</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>895</v>
+        <v>2140.27</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Movimiento De Unidad Plurinacional PACHAKUTIK (MUPP)</t>
+          <t>(ID) - C. Rabascall - A. Rivas</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>895</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Movimiento De Unidad Plurinacional PACHAKUTIK (MUPP)</t>
+          <t>(MUPP) - L. Iza - K. Molina</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>90997.67999999999</v>
+        <v>895</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Movimiento De Unidad Plurinacional PACHAKUTIK (MUPP)</t>
+          <t>(MUPP) - L. Iza - K. Molina</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2841.33</v>
+        <v>895</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Movimiento Democracia Sí (DSI)</t>
+          <t>(MUPP) - L. Iza - K. Molina</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>9918.059999999999</v>
+        <v>90997.67999999999</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Movimiento Democracia Sí (DSI)</t>
+          <t>(MUPP) - L. Iza - K. Molina</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -867,13 +867,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>493.81</v>
+        <v>2841.33</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Movimiento Pueblo Igualdad Democracia (PID)</t>
+          <t>(PID) - V. Araus - C. Carrera</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -888,7 +888,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Movimiento Pueblo Igualdad Democracia (PID)</t>
+          <t>(PID) - V. Araus - C. Carrera</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -903,37 +903,37 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Partido Avanza (AVANZA)</t>
+          <t>(PSC) - H. Kronfle - D. Passailaigue</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>92664.23</v>
+        <v>38006</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Partido Avanza (AVANZA)</t>
+          <t>(PSC) - H. Kronfle - D. Passailaigue</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3973.28</v>
+        <v>46930</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Partido Izquierda Democrática (ID)</t>
+          <t>(PSC) - H. Kronfle - D. Passailaigue</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -942,13 +942,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2140.27</v>
+        <v>7816.47</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Partido Izquierda Democrática (ID)</t>
+          <t>(PSC) - H. Kronfle - D. Passailaigue</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -957,43 +957,43 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>12.6</v>
+        <v>285.7</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Partido Social Cristiano (PSC)</t>
+          <t>(PSE) - P. Granja - V. Silva</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>38006</v>
+        <v>941.05</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Partido Social Cristiano (PSC)</t>
+          <t>(PSE) - P. Granja - V. Silva</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>46930</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Partido Social Cristiano (PSC)</t>
+          <t>(PSP) - A. González - G. Moncayo</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1002,13 +1002,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>7816.47</v>
+        <v>262212.04</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Partido Social Cristiano (PSC)</t>
+          <t>(PSP) - A. González - G. Moncayo</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1017,43 +1017,43 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>285.7</v>
+        <v>21312.6</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Partido Socialista Ecuatoriano (PSE)</t>
+          <t>(RC/RETO) - L. González - D. Borja</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Tiktok</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>941.05</v>
+        <v>49.5</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Partido Socialista Ecuatoriano (PSE)</t>
+          <t>(RC/RETO) - L. González - D. Borja</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.5</v>
+        <v>49.5</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Partido Sociedad Patriótica 21 De Enero (PSP)</t>
+          <t>(RC/RETO) - L. González - D. Borja</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1062,13 +1062,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>262212.04</v>
+        <v>93332.5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Partido Sociedad Patriótica 21 De Enero (PSP)</t>
+          <t>(RC/RETO) - L. González - D. Borja</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1077,13 +1077,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>21312.6</v>
+        <v>36798.39</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Partido Sociedad Unida Más Acción (SUMA)</t>
+          <t>(SUMA) - W. Gómez - I. Díaz</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1098,7 +1098,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Partido Unidad Popular (UP)</t>
+          <t>(UP) - J. Escala - P. Terán</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1113,7 +1113,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Partido Unidad Popular (UP)</t>
+          <t>(UP) - J. Escala - P. Terán</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1128,7 +1128,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Partido Unidad Popular (UP)</t>
+          <t>(UP) - J. Escala - P. Terán</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1143,7 +1143,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Partido Unidad Popular (UP)</t>
+          <t>(UP) - J. Escala - P. Terán</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2334572.33</v>
+        <v>2334686.38</v>
       </c>
     </row>
     <row r="52">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>276826.48</v>
+        <v>276837.15</v>
       </c>
     </row>
   </sheetData>

--- a/ec_2025_faro/xlsx/gasto_por_partido_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_por_partido_all.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>25862</v>
+        <v>27259.5</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>68298</v>
+        <v>71995.5</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1514058.29</v>
+        <v>1664362.54</v>
       </c>
     </row>
     <row r="5">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>34284.32</v>
+        <v>37331.28</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>625.3099999999999</v>
+        <v>637.89</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>92748.72</v>
+        <v>107558</v>
       </c>
     </row>
     <row r="11">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3974.09</v>
+        <v>3979.38</v>
       </c>
     </row>
     <row r="12">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>76878.35000000001</v>
+        <v>84880.06</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3668.94</v>
+        <v>3717.93</v>
       </c>
     </row>
     <row r="14">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1831.5</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="15">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>6187.5</v>
+        <v>6237</v>
       </c>
     </row>
     <row r="16">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>9238.860000000001</v>
+        <v>9775.73</v>
       </c>
     </row>
     <row r="17">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>18437</v>
+        <v>19084.5</v>
       </c>
     </row>
     <row r="19">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>13753</v>
+        <v>14202.5</v>
       </c>
     </row>
     <row r="20">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>36986.97</v>
+        <v>39215.74</v>
       </c>
     </row>
     <row r="21">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>73.75</v>
+        <v>74.04000000000001</v>
       </c>
     </row>
     <row r="22">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>9918.059999999999</v>
+        <v>11076.58</v>
       </c>
     </row>
     <row r="23">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>495.69</v>
+        <v>502.82</v>
       </c>
     </row>
     <row r="24">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2140.27</v>
+        <v>2443.03</v>
       </c>
     </row>
     <row r="25">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>895</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="27">
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>895</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="28">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>90997.67999999999</v>
+        <v>102590.03</v>
       </c>
     </row>
     <row r="29">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>86898.7</v>
+        <v>96286.09</v>
       </c>
     </row>
     <row r="31">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>38006</v>
+        <v>38056</v>
       </c>
     </row>
     <row r="33">
@@ -927,7 +927,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>46930</v>
+        <v>46980</v>
       </c>
     </row>
     <row r="34">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>7816.47</v>
+        <v>8750.73</v>
       </c>
     </row>
     <row r="35">
@@ -957,7 +957,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>285.7</v>
+        <v>288.79</v>
       </c>
     </row>
     <row r="36">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>941.05</v>
+        <v>1013.11</v>
       </c>
     </row>
     <row r="37">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>262212.04</v>
+        <v>285820.23</v>
       </c>
     </row>
     <row r="39">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>93332.5</v>
+        <v>112142</v>
       </c>
     </row>
     <row r="43">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>704.73</v>
+        <v>787.28</v>
       </c>
     </row>
     <row r="45">
@@ -1137,7 +1137,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>15529.37</v>
+        <v>16977.4</v>
       </c>
     </row>
     <row r="48">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.24</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="49">
@@ -1167,7 +1167,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>94710.5</v>
+        <v>97053</v>
       </c>
     </row>
     <row r="50">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>148124.5</v>
+        <v>152569</v>
       </c>
     </row>
     <row r="51">
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2334686.38</v>
+        <v>2581009.83</v>
       </c>
     </row>
     <row r="52">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>276837.15</v>
+        <v>276914.64</v>
       </c>
     </row>
   </sheetData>

--- a/ec_2025_faro/xlsx/gasto_por_partido_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_por_partido_all.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>27259.5</v>
+        <v>28557.5</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>71995.5</v>
+        <v>75788.5</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1664362.54</v>
+        <v>1798744.63</v>
       </c>
     </row>
     <row r="5">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>37331.28</v>
+        <v>40596.19</v>
       </c>
     </row>
     <row r="9">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>107558</v>
+        <v>118326.39</v>
       </c>
     </row>
     <row r="11">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3979.38</v>
+        <v>3981.22</v>
       </c>
     </row>
     <row r="12">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>84880.06</v>
+        <v>93667.05</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3717.93</v>
+        <v>3755.29</v>
       </c>
     </row>
     <row r="14">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1881</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="15">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>6237</v>
+        <v>6435</v>
       </c>
     </row>
     <row r="16">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>9775.73</v>
+        <v>10868.17</v>
       </c>
     </row>
     <row r="17">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>19084.5</v>
+        <v>19484.5</v>
       </c>
     </row>
     <row r="19">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>14202.5</v>
+        <v>14502.5</v>
       </c>
     </row>
     <row r="20">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>39215.74</v>
+        <v>42231.42</v>
       </c>
     </row>
     <row r="21">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>74.04000000000001</v>
+        <v>74.37</v>
       </c>
     </row>
     <row r="22">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>11076.58</v>
+        <v>12233.3</v>
       </c>
     </row>
     <row r="23">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>502.82</v>
+        <v>508.56</v>
       </c>
     </row>
     <row r="24">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2443.03</v>
+        <v>2725.95</v>
       </c>
     </row>
     <row r="25">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1093</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="27">
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1093</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="28">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>102590.03</v>
+        <v>113540.45</v>
       </c>
     </row>
     <row r="29">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>96286.09</v>
+        <v>104506.54</v>
       </c>
     </row>
     <row r="31">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>38056</v>
+        <v>39046.5</v>
       </c>
     </row>
     <row r="33">
@@ -927,7 +927,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>46980</v>
+        <v>48267.5</v>
       </c>
     </row>
     <row r="34">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>8750.73</v>
+        <v>9717.91</v>
       </c>
     </row>
     <row r="35">
@@ -957,7 +957,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>288.79</v>
+        <v>288.95</v>
       </c>
     </row>
     <row r="36">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1013.11</v>
+        <v>1096.49</v>
       </c>
     </row>
     <row r="37">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>285820.23</v>
+        <v>318003.56</v>
       </c>
     </row>
     <row r="39">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>112142</v>
+        <v>125723</v>
       </c>
     </row>
     <row r="43">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>787.28</v>
+        <v>872.2</v>
       </c>
     </row>
     <row r="45">
@@ -1107,7 +1107,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1641</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="46">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1641</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="47">
@@ -1137,7 +1137,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>16977.4</v>
+        <v>18609.37</v>
       </c>
     </row>
     <row r="48">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.36</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="49">
@@ -1167,7 +1167,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>97053</v>
+        <v>100634.5</v>
       </c>
     </row>
     <row r="50">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>152569</v>
+        <v>158941.5</v>
       </c>
     </row>
     <row r="51">
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2581009.83</v>
+        <v>2811462.62</v>
       </c>
     </row>
     <row r="52">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>276914.64</v>
+        <v>276960.19</v>
       </c>
     </row>
   </sheetData>

--- a/ec_2025_faro/xlsx/gasto_por_partido_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_por_partido_all.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>28557.5</v>
+        <v>28657.5</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>75788.5</v>
+        <v>76288.5</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1798744.63</v>
+        <v>1939273.94</v>
       </c>
     </row>
     <row r="5">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>40596.19</v>
+        <v>42501.96</v>
       </c>
     </row>
     <row r="9">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>118326.39</v>
+        <v>131397.38</v>
       </c>
     </row>
     <row r="11">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3981.22</v>
+        <v>3982.96</v>
       </c>
     </row>
     <row r="12">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>93667.05</v>
+        <v>106462.84</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3755.29</v>
+        <v>3790.84</v>
       </c>
     </row>
     <row r="14">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1980</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="15">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>6435</v>
+        <v>7030</v>
       </c>
     </row>
     <row r="16">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>10868.17</v>
+        <v>11551.69</v>
       </c>
     </row>
     <row r="17">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>19484.5</v>
+        <v>19984</v>
       </c>
     </row>
     <row r="19">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>14502.5</v>
+        <v>15001</v>
       </c>
     </row>
     <row r="20">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>42231.42</v>
+        <v>45878.86</v>
       </c>
     </row>
     <row r="21">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>74.37</v>
+        <v>75.06999999999999</v>
       </c>
     </row>
     <row r="22">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>12233.3</v>
+        <v>13518.67</v>
       </c>
     </row>
     <row r="23">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>508.56</v>
+        <v>513.62</v>
       </c>
     </row>
     <row r="24">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2725.95</v>
+        <v>3019.44</v>
       </c>
     </row>
     <row r="25">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>12.6</v>
+        <v>13.04</v>
       </c>
     </row>
     <row r="26">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1293</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="27">
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1293</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="28">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>113540.45</v>
+        <v>124387.95</v>
       </c>
     </row>
     <row r="29">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>104506.54</v>
+        <v>114963.25</v>
       </c>
     </row>
     <row r="31">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>39046.5</v>
+        <v>39096</v>
       </c>
     </row>
     <row r="33">
@@ -927,7 +927,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>48267.5</v>
+        <v>48317</v>
       </c>
     </row>
     <row r="34">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>9717.91</v>
+        <v>10514.3</v>
       </c>
     </row>
     <row r="35">
@@ -957,7 +957,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>288.95</v>
+        <v>291.07</v>
       </c>
     </row>
     <row r="36">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1096.49</v>
+        <v>1178.13</v>
       </c>
     </row>
     <row r="37">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>318003.56</v>
+        <v>344446.52</v>
       </c>
     </row>
     <row r="39">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>125723</v>
+        <v>146066.5</v>
       </c>
     </row>
     <row r="43">
@@ -1083,7 +1083,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>(SUMA) - W. Gómez - I. Díaz</t>
+          <t>(SUMA) - E. Gómez - I. Díaz</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>872.2</v>
+        <v>977.22</v>
       </c>
     </row>
     <row r="45">
@@ -1107,7 +1107,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2235</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="46">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2235</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="47">
@@ -1137,7 +1137,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>18609.37</v>
+        <v>20018.16</v>
       </c>
     </row>
     <row r="48">
@@ -1167,7 +1167,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>100634.5</v>
+        <v>102078.5</v>
       </c>
     </row>
     <row r="50">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>158941.5</v>
+        <v>161181.5</v>
       </c>
     </row>
     <row r="51">
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2811462.62</v>
+        <v>3056156.81</v>
       </c>
     </row>
     <row r="52">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>276960.19</v>
+        <v>277005.8</v>
       </c>
     </row>
   </sheetData>

--- a/ec_2025_faro/xlsx/gasto_por_partido_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_por_partido_all.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>28657.5</v>
+        <v>30105.5</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>76288.5</v>
+        <v>79933.5</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1939273.94</v>
+        <v>2081618.91</v>
       </c>
     </row>
     <row r="5">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>42501.96</v>
+        <v>43719.76</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>637.89</v>
+        <v>641.76</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>131397.38</v>
+        <v>144234.95</v>
       </c>
     </row>
     <row r="11">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3982.96</v>
+        <v>3983</v>
       </c>
     </row>
     <row r="12">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>106462.84</v>
+        <v>112509.08</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3790.84</v>
+        <v>3809.04</v>
       </c>
     </row>
     <row r="14">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2178</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="15">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>7030</v>
+        <v>7329</v>
       </c>
     </row>
     <row r="16">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>11551.69</v>
+        <v>12116.23</v>
       </c>
     </row>
     <row r="17">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>19984</v>
+        <v>20534</v>
       </c>
     </row>
     <row r="19">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>15001</v>
+        <v>15451</v>
       </c>
     </row>
     <row r="20">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>45878.86</v>
+        <v>47280.12</v>
       </c>
     </row>
     <row r="21">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>75.06999999999999</v>
+        <v>77.38</v>
       </c>
     </row>
     <row r="22">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>13518.67</v>
+        <v>14484.96</v>
       </c>
     </row>
     <row r="23">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>513.62</v>
+        <v>515.73</v>
       </c>
     </row>
     <row r="24">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3019.44</v>
+        <v>3329.88</v>
       </c>
     </row>
     <row r="25">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>13.04</v>
+        <v>13.32</v>
       </c>
     </row>
     <row r="26">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1592</v>
+        <v>1741.5</v>
       </c>
     </row>
     <row r="27">
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1592</v>
+        <v>1741.5</v>
       </c>
     </row>
     <row r="28">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>124387.95</v>
+        <v>128081.42</v>
       </c>
     </row>
     <row r="29">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>114963.25</v>
+        <v>119251.49</v>
       </c>
     </row>
     <row r="31">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>39096</v>
+        <v>39741</v>
       </c>
     </row>
     <row r="33">
@@ -927,7 +927,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>48317</v>
+        <v>49061</v>
       </c>
     </row>
     <row r="34">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>10514.3</v>
+        <v>11394.57</v>
       </c>
     </row>
     <row r="35">
@@ -957,7 +957,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>291.07</v>
+        <v>294.36</v>
       </c>
     </row>
     <row r="36">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1178.13</v>
+        <v>1256.56</v>
       </c>
     </row>
     <row r="37">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>344446.52</v>
+        <v>363810.4</v>
       </c>
     </row>
     <row r="39">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>146066.5</v>
+        <v>148215</v>
       </c>
     </row>
     <row r="43">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>977.22</v>
+        <v>1034.46</v>
       </c>
     </row>
     <row r="45">
@@ -1107,7 +1107,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2533</v>
+        <v>2929.5</v>
       </c>
     </row>
     <row r="46">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2533</v>
+        <v>2929.5</v>
       </c>
     </row>
     <row r="47">
@@ -1137,7 +1137,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>20018.16</v>
+        <v>21311.31</v>
       </c>
     </row>
     <row r="48">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.48</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="49">
@@ -1167,7 +1167,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>102078.5</v>
+        <v>105466.5</v>
       </c>
     </row>
     <row r="50">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>161181.5</v>
+        <v>166865.5</v>
       </c>
     </row>
     <row r="51">
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3056156.81</v>
+        <v>3253649.1</v>
       </c>
     </row>
     <row r="52">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>277005.8</v>
+        <v>277036.01</v>
       </c>
     </row>
   </sheetData>

--- a/ec_2025_faro/xlsx/gasto_por_partido_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_por_partido_all.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>30105.5</v>
+        <v>32498.5</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>79933.5</v>
+        <v>85520.5</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2081618.91</v>
+        <v>2097848.06</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>206707.58</v>
+        <v>218621.6</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>43719.76</v>
+        <v>47110.24</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>641.76</v>
+        <v>646.83</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>144234.95</v>
+        <v>156005.8</v>
       </c>
     </row>
     <row r="11">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3983</v>
+        <v>3983.02</v>
       </c>
     </row>
     <row r="12">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>112509.08</v>
+        <v>119846.26</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3809.04</v>
+        <v>3829.44</v>
       </c>
     </row>
     <row r="14">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>12116.23</v>
+        <v>12911.46</v>
       </c>
     </row>
     <row r="17">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>20534</v>
+        <v>20984</v>
       </c>
     </row>
     <row r="19">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>15451</v>
+        <v>15901</v>
       </c>
     </row>
     <row r="20">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>47280.12</v>
+        <v>50473.41</v>
       </c>
     </row>
     <row r="21">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>77.38</v>
+        <v>78.84999999999999</v>
       </c>
     </row>
     <row r="22">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>14484.96</v>
+        <v>15122.12</v>
       </c>
     </row>
     <row r="23">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>515.73</v>
+        <v>518.12</v>
       </c>
     </row>
     <row r="24">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3329.88</v>
+        <v>3422.65</v>
       </c>
     </row>
     <row r="25">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>13.32</v>
+        <v>13.68</v>
       </c>
     </row>
     <row r="26">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1741.5</v>
+        <v>1841.5</v>
       </c>
     </row>
     <row r="27">
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1741.5</v>
+        <v>1841.5</v>
       </c>
     </row>
     <row r="28">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>128081.42</v>
+        <v>136800.34</v>
       </c>
     </row>
     <row r="29">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>119251.49</v>
+        <v>123515.04</v>
       </c>
     </row>
     <row r="31">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>39741</v>
+        <v>40682.5</v>
       </c>
     </row>
     <row r="33">
@@ -927,7 +927,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>49061</v>
+        <v>50398.5</v>
       </c>
     </row>
     <row r="34">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>11394.57</v>
+        <v>11755.95</v>
       </c>
     </row>
     <row r="35">
@@ -957,7 +957,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>294.36</v>
+        <v>296.61</v>
       </c>
     </row>
     <row r="36">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1256.56</v>
+        <v>1314.96</v>
       </c>
     </row>
     <row r="37">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>363810.4</v>
+        <v>387533.23</v>
       </c>
     </row>
     <row r="39">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>49.5</v>
+        <v>7138.5</v>
       </c>
     </row>
     <row r="41">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>49.5</v>
+        <v>4940.5</v>
       </c>
     </row>
     <row r="42">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>148215</v>
+        <v>162896</v>
       </c>
     </row>
     <row r="43">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1034.46</v>
+        <v>1160.46</v>
       </c>
     </row>
     <row r="45">
@@ -1107,7 +1107,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2929.5</v>
+        <v>3177.5</v>
       </c>
     </row>
     <row r="46">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2929.5</v>
+        <v>3177.5</v>
       </c>
     </row>
     <row r="47">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.59</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="49">
@@ -1167,7 +1167,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>105466.5</v>
+        <v>116688</v>
       </c>
     </row>
     <row r="50">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>166865.5</v>
+        <v>179479</v>
       </c>
     </row>
     <row r="51">
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3253649.1</v>
+        <v>3349027.29</v>
       </c>
     </row>
     <row r="52">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>277036.01</v>
+        <v>288982.1</v>
       </c>
     </row>
   </sheetData>

--- a/ec_2025_faro/xlsx/gasto_por_partido_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_por_partido_all.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>32498.5</v>
+        <v>34039.5</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>85520.5</v>
+        <v>89256.5</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2097848.06</v>
+        <v>2119745.52</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>218621.6</v>
+        <v>226071.68</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>47110.24</v>
+        <v>49299.22</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>646.83</v>
+        <v>651.42</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>156005.8</v>
+        <v>165801.81</v>
       </c>
     </row>
     <row r="11">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3983.02</v>
+        <v>3983.12</v>
       </c>
     </row>
     <row r="12">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>119846.26</v>
+        <v>126712.93</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3829.44</v>
+        <v>3847.94</v>
       </c>
     </row>
     <row r="14">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>7329</v>
+        <v>7429</v>
       </c>
     </row>
     <row r="16">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>12911.46</v>
+        <v>14125.27</v>
       </c>
     </row>
     <row r="17">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>20984</v>
+        <v>21383</v>
       </c>
     </row>
     <row r="19">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>15901</v>
+        <v>16200</v>
       </c>
     </row>
     <row r="20">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>50473.41</v>
+        <v>52224.49</v>
       </c>
     </row>
     <row r="21">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>78.84999999999999</v>
+        <v>80.56999999999999</v>
       </c>
     </row>
     <row r="22">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>15122.12</v>
+        <v>16376.99</v>
       </c>
     </row>
     <row r="23">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>518.12</v>
+        <v>530.0599999999999</v>
       </c>
     </row>
     <row r="24">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3422.65</v>
+        <v>3711.31</v>
       </c>
     </row>
     <row r="25">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>13.68</v>
+        <v>14.32</v>
       </c>
     </row>
     <row r="26">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1841.5</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="27">
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1841.5</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="28">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>136800.34</v>
+        <v>146878.57</v>
       </c>
     </row>
     <row r="29">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>123515.04</v>
+        <v>127757.22</v>
       </c>
     </row>
     <row r="31">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>40682.5</v>
+        <v>40732</v>
       </c>
     </row>
     <row r="33">
@@ -927,7 +927,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>50398.5</v>
+        <v>50547</v>
       </c>
     </row>
     <row r="34">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>11755.95</v>
+        <v>12666.85</v>
       </c>
     </row>
     <row r="35">
@@ -957,7 +957,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>296.61</v>
+        <v>297.71</v>
       </c>
     </row>
     <row r="36">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1314.96</v>
+        <v>2305.26</v>
       </c>
     </row>
     <row r="37">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>387533.23</v>
+        <v>404737.85</v>
       </c>
     </row>
     <row r="39">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>7138.5</v>
+        <v>11031</v>
       </c>
     </row>
     <row r="41">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4940.5</v>
+        <v>8033</v>
       </c>
     </row>
     <row r="42">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>162896</v>
+        <v>170506</v>
       </c>
     </row>
     <row r="43">
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>36798.39</v>
+        <v>38074.51</v>
       </c>
     </row>
     <row r="44">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1160.46</v>
+        <v>1224.29</v>
       </c>
     </row>
     <row r="45">
@@ -1107,7 +1107,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3177.5</v>
+        <v>3525.5</v>
       </c>
     </row>
     <row r="46">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3177.5</v>
+        <v>3525.5</v>
       </c>
     </row>
     <row r="47">
@@ -1137,7 +1137,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>21311.31</v>
+        <v>22485.23</v>
       </c>
     </row>
     <row r="48">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.7</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="49">
@@ -1167,7 +1167,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>116688</v>
+        <v>123067.5</v>
       </c>
     </row>
     <row r="50">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>179479</v>
+        <v>187352.5</v>
       </c>
     </row>
     <row r="51">
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3349027.29</v>
+        <v>3436558.81</v>
       </c>
     </row>
     <row r="52">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>288982.1</v>
+        <v>297747</v>
       </c>
     </row>
   </sheetData>

--- a/ec_2025_faro/xlsx/gasto_por_partido_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_por_partido_all.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>34039.5</v>
+        <v>35039</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>89256.5</v>
+        <v>92950</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2119745.52</v>
+        <v>2380530.89</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>226071.68</v>
+        <v>232778.06</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>49299.22</v>
+        <v>51454.25</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>651.42</v>
+        <v>656.37</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>165801.81</v>
+        <v>176018.64</v>
       </c>
     </row>
     <row r="11">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3983.12</v>
+        <v>3983.23</v>
       </c>
     </row>
     <row r="12">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>126712.93</v>
+        <v>133330.94</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3847.94</v>
+        <v>3873.8</v>
       </c>
     </row>
     <row r="14">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2377</v>
+        <v>2426.5</v>
       </c>
     </row>
     <row r="15">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>7429</v>
+        <v>7577.5</v>
       </c>
     </row>
     <row r="16">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>14125.27</v>
+        <v>15097.35</v>
       </c>
     </row>
     <row r="17">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>21383</v>
+        <v>21681</v>
       </c>
     </row>
     <row r="19">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>16200</v>
+        <v>16598</v>
       </c>
     </row>
     <row r="20">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>52224.49</v>
+        <v>55325.72</v>
       </c>
     </row>
     <row r="21">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>80.56999999999999</v>
+        <v>82.28</v>
       </c>
     </row>
     <row r="22">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>16376.99</v>
+        <v>17495.68</v>
       </c>
     </row>
     <row r="23">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>530.0599999999999</v>
+        <v>544</v>
       </c>
     </row>
     <row r="24">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3711.31</v>
+        <v>3997.25</v>
       </c>
     </row>
     <row r="25">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>14.32</v>
+        <v>14.73</v>
       </c>
     </row>
     <row r="26">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1991</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="27">
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1991</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="28">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>146878.57</v>
+        <v>157347.78</v>
       </c>
     </row>
     <row r="29">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>127757.22</v>
+        <v>138130.8</v>
       </c>
     </row>
     <row r="31">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>40732</v>
+        <v>41623.5</v>
       </c>
     </row>
     <row r="33">
@@ -927,7 +927,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>50547</v>
+        <v>52230.5</v>
       </c>
     </row>
     <row r="34">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>12666.85</v>
+        <v>13581.93</v>
       </c>
     </row>
     <row r="35">
@@ -957,7 +957,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>297.71</v>
+        <v>298.9</v>
       </c>
     </row>
     <row r="36">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2305.26</v>
+        <v>3682.33</v>
       </c>
     </row>
     <row r="37">
@@ -987,7 +987,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.5</v>
+        <v>22.52</v>
       </c>
     </row>
     <row r="38">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>404737.85</v>
+        <v>425367.43</v>
       </c>
     </row>
     <row r="39">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>11031</v>
+        <v>13874</v>
       </c>
     </row>
     <row r="41">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>8033</v>
+        <v>10975</v>
       </c>
     </row>
     <row r="42">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>170506</v>
+        <v>177026</v>
       </c>
     </row>
     <row r="43">
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>38074.51</v>
+        <v>38761.41</v>
       </c>
     </row>
     <row r="44">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1224.29</v>
+        <v>1291.82</v>
       </c>
     </row>
     <row r="45">
@@ -1107,7 +1107,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3525.5</v>
+        <v>3825.5</v>
       </c>
     </row>
     <row r="46">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3525.5</v>
+        <v>3825.5</v>
       </c>
     </row>
     <row r="47">
@@ -1137,7 +1137,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>22485.23</v>
+        <v>23454.97</v>
       </c>
     </row>
     <row r="48">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="49">
@@ -1167,7 +1167,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>123067.5</v>
+        <v>128549</v>
       </c>
     </row>
     <row r="50">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>187352.5</v>
+        <v>196618</v>
       </c>
     </row>
     <row r="51">
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3436558.81</v>
+        <v>3773133.78</v>
       </c>
     </row>
     <row r="52">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>297747</v>
+        <v>305210.58</v>
       </c>
     </row>
   </sheetData>

--- a/ec_2025_faro/xlsx/gasto_por_partido_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_por_partido_all.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>35039</v>
+        <v>35187.5</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>92950</v>
+        <v>93098.5</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2380530.89</v>
+        <v>2382290.89</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>232778.06</v>
+        <v>240126.38</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7988.5</v>
+        <v>8484.5</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10370.5</v>
+        <v>10866.5</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>51454.25</v>
+        <v>51475.7</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>656.37</v>
+        <v>661.79</v>
       </c>
     </row>
     <row r="10">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3983.23</v>
+        <v>3983.68</v>
       </c>
     </row>
     <row r="12">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>133330.94</v>
+        <v>133374.61</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3873.8</v>
+        <v>3897.94</v>
       </c>
     </row>
     <row r="14">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2426.5</v>
+        <v>2476.5</v>
       </c>
     </row>
     <row r="15">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>7577.5</v>
+        <v>7727.5</v>
       </c>
     </row>
     <row r="16">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>21681</v>
+        <v>22031</v>
       </c>
     </row>
     <row r="19">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>16598</v>
+        <v>17048</v>
       </c>
     </row>
     <row r="20">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>82.28</v>
+        <v>83.41</v>
       </c>
     </row>
     <row r="22">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>17495.68</v>
+        <v>17498.52</v>
       </c>
     </row>
     <row r="23">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>544</v>
+        <v>560.37</v>
       </c>
     </row>
     <row r="24">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>14.73</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="26">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2091</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="27">
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2091</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="28">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>138130.8</v>
+        <v>138166.35</v>
       </c>
     </row>
     <row r="31">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>41623.5</v>
+        <v>42763</v>
       </c>
     </row>
     <row r="33">
@@ -927,7 +927,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>52230.5</v>
+        <v>54361</v>
       </c>
     </row>
     <row r="34">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>13581.93</v>
+        <v>13586.87</v>
       </c>
     </row>
     <row r="35">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3682.33</v>
+        <v>3685.31</v>
       </c>
     </row>
     <row r="37">
@@ -987,7 +987,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>22.52</v>
+        <v>36.23</v>
       </c>
     </row>
     <row r="38">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>425367.43</v>
+        <v>425393.31</v>
       </c>
     </row>
     <row r="39">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>13874</v>
+        <v>17474</v>
       </c>
     </row>
     <row r="41">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>10975</v>
+        <v>14775</v>
       </c>
     </row>
     <row r="42">
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>38761.41</v>
+        <v>39424.19</v>
       </c>
     </row>
     <row r="44">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1291.82</v>
+        <v>1294.81</v>
       </c>
     </row>
     <row r="45">
@@ -1107,7 +1107,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3825.5</v>
+        <v>4122.5</v>
       </c>
     </row>
     <row r="46">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.92</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="49">
@@ -1167,7 +1167,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>128549</v>
+        <v>134930</v>
       </c>
     </row>
     <row r="50">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>196618</v>
+        <v>204093</v>
       </c>
     </row>
     <row r="51">
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3773133.78</v>
+        <v>3775034.08</v>
       </c>
     </row>
     <row r="52">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>305210.58</v>
+        <v>313283.48</v>
       </c>
     </row>
   </sheetData>

--- a/ec_2025_faro/xlsx/gasto_por_partido_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_por_partido_all.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>35187.5</v>
+        <v>36931</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>93098.5</v>
+        <v>97736</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2382290.89</v>
+        <v>2539967.38</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>240126.38</v>
+        <v>250854.18</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8484.5</v>
+        <v>8683.5</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10866.5</v>
+        <v>11065.5</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>51475.7</v>
+        <v>57686.86</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>661.79</v>
+        <v>663.05</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>176018.64</v>
+        <v>188489.67</v>
       </c>
     </row>
     <row r="11">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3983.68</v>
+        <v>3983.95</v>
       </c>
     </row>
     <row r="12">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>133374.61</v>
+        <v>147167.78</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3897.94</v>
+        <v>3914.44</v>
       </c>
     </row>
     <row r="14">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2476.5</v>
+        <v>2526.5</v>
       </c>
     </row>
     <row r="15">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>7727.5</v>
+        <v>7777.5</v>
       </c>
     </row>
     <row r="16">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>15097.35</v>
+        <v>16317.09</v>
       </c>
     </row>
     <row r="17">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>22031</v>
+        <v>22431</v>
       </c>
     </row>
     <row r="19">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>17048</v>
+        <v>17648</v>
       </c>
     </row>
     <row r="20">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>55325.72</v>
+        <v>59339.09</v>
       </c>
     </row>
     <row r="21">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>83.41</v>
+        <v>83.84</v>
       </c>
     </row>
     <row r="22">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>17498.52</v>
+        <v>18764.96</v>
       </c>
     </row>
     <row r="23">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>560.37</v>
+        <v>574.99</v>
       </c>
     </row>
     <row r="24">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3997.25</v>
+        <v>4421.33</v>
       </c>
     </row>
     <row r="25">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>15.2</v>
+        <v>15.63</v>
       </c>
     </row>
     <row r="26">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2391</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="27">
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2391</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="28">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>157347.78</v>
+        <v>169509.56</v>
       </c>
     </row>
     <row r="29">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>138166.35</v>
+        <v>149614.54</v>
       </c>
     </row>
     <row r="31">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>42763</v>
+        <v>43259.5</v>
       </c>
     </row>
     <row r="33">
@@ -927,7 +927,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>54361</v>
+        <v>55254.5</v>
       </c>
     </row>
     <row r="34">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>13586.87</v>
+        <v>14179.28</v>
       </c>
     </row>
     <row r="35">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3685.31</v>
+        <v>7071.12</v>
       </c>
     </row>
     <row r="37">
@@ -987,7 +987,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>36.23</v>
+        <v>95.23999999999999</v>
       </c>
     </row>
     <row r="38">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>425393.31</v>
+        <v>455268.75</v>
       </c>
     </row>
     <row r="39">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>17474</v>
+        <v>21613</v>
       </c>
     </row>
     <row r="41">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>14775</v>
+        <v>19014</v>
       </c>
     </row>
     <row r="42">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>177026</v>
+        <v>209956.5</v>
       </c>
     </row>
     <row r="43">
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>39424.19</v>
+        <v>40084.34</v>
       </c>
     </row>
     <row r="44">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1294.81</v>
+        <v>1432.67</v>
       </c>
     </row>
     <row r="45">
@@ -1107,7 +1107,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4122.5</v>
+        <v>4221.5</v>
       </c>
     </row>
     <row r="46">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3825.5</v>
+        <v>3924.5</v>
       </c>
     </row>
     <row r="47">
@@ -1137,7 +1137,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>23454.97</v>
+        <v>25134.57</v>
       </c>
     </row>
     <row r="48">
@@ -1167,7 +1167,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>134930</v>
+        <v>142156</v>
       </c>
     </row>
     <row r="50">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>204093</v>
+        <v>214910</v>
       </c>
     </row>
     <row r="51">
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3775034.08</v>
+        <v>4064321.15</v>
       </c>
     </row>
     <row r="52">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>313283.48</v>
+        <v>324763.95</v>
       </c>
     </row>
   </sheetData>

--- a/ec_2025_faro/xlsx/gasto_por_partido_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_por_partido_all.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>36931</v>
+        <v>40076.5</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>97736</v>
+        <v>103679.5</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2539967.38</v>
+        <v>2720365.87</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>250854.18</v>
+        <v>257085.11</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8683.5</v>
+        <v>8832</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>11065.5</v>
+        <v>11214</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>57686.86</v>
+        <v>61969.4</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>663.05</v>
+        <v>664.33</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>188489.67</v>
+        <v>204224.1</v>
       </c>
     </row>
     <row r="11">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3983.95</v>
+        <v>3984.22</v>
       </c>
     </row>
     <row r="12">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>147167.78</v>
+        <v>164757.03</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3914.44</v>
+        <v>3938.48</v>
       </c>
     </row>
     <row r="14">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>7777.5</v>
+        <v>7877.5</v>
       </c>
     </row>
     <row r="16">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>16317.09</v>
+        <v>17835.54</v>
       </c>
     </row>
     <row r="17">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>22431</v>
+        <v>22931</v>
       </c>
     </row>
     <row r="19">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>17648</v>
+        <v>18248</v>
       </c>
     </row>
     <row r="20">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>59339.09</v>
+        <v>65664.56</v>
       </c>
     </row>
     <row r="21">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>83.84</v>
+        <v>84.23999999999999</v>
       </c>
     </row>
     <row r="22">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>18764.96</v>
+        <v>20203</v>
       </c>
     </row>
     <row r="23">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>574.99</v>
+        <v>596.1799999999999</v>
       </c>
     </row>
     <row r="24">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4421.33</v>
+        <v>4791.9</v>
       </c>
     </row>
     <row r="25">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>15.63</v>
+        <v>16.02</v>
       </c>
     </row>
     <row r="26">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>169509.56</v>
+        <v>183429.52</v>
       </c>
     </row>
     <row r="29">
@@ -867,7 +867,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2841.33</v>
+        <v>4230.15</v>
       </c>
     </row>
     <row r="30">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>149614.54</v>
+        <v>161237.77</v>
       </c>
     </row>
     <row r="31">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>43259.5</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="33">
@@ -927,7 +927,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>55254.5</v>
+        <v>58129</v>
       </c>
     </row>
     <row r="34">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>14179.28</v>
+        <v>15493.96</v>
       </c>
     </row>
     <row r="35">
@@ -957,7 +957,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>298.9</v>
+        <v>305.78</v>
       </c>
     </row>
     <row r="36">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>7071.12</v>
+        <v>9856.799999999999</v>
       </c>
     </row>
     <row r="37">
@@ -987,7 +987,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>95.23999999999999</v>
+        <v>136.39</v>
       </c>
     </row>
     <row r="38">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>455268.75</v>
+        <v>489641.2</v>
       </c>
     </row>
     <row r="39">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>21613</v>
+        <v>27449.5</v>
       </c>
     </row>
     <row r="41">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>19014</v>
+        <v>25251.5</v>
       </c>
     </row>
     <row r="42">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>209956.5</v>
+        <v>236313.5</v>
       </c>
     </row>
     <row r="43">
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>40084.34</v>
+        <v>40744.05</v>
       </c>
     </row>
     <row r="44">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1432.67</v>
+        <v>1602.22</v>
       </c>
     </row>
     <row r="45">
@@ -1107,7 +1107,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4221.5</v>
+        <v>4371.5</v>
       </c>
     </row>
     <row r="46">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3924.5</v>
+        <v>4074.5</v>
       </c>
     </row>
     <row r="47">
@@ -1137,7 +1137,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>25134.57</v>
+        <v>26894.12</v>
       </c>
     </row>
     <row r="48">
@@ -1167,7 +1167,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>142156</v>
+        <v>153719</v>
       </c>
     </row>
     <row r="50">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>214910</v>
+        <v>230964</v>
       </c>
     </row>
     <row r="51">
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4064321.15</v>
+        <v>4384280.49</v>
       </c>
     </row>
     <row r="52">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>324763.95</v>
+        <v>333139.01</v>
       </c>
     </row>
   </sheetData>

--- a/ec_2025_faro/xlsx/gasto_por_partido_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_por_partido_all.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>40076.5</v>
+        <v>43318</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>103679.5</v>
+        <v>110318</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2720365.87</v>
+        <v>2741121.65</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>257085.11</v>
+        <v>263091.1</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8832</v>
+        <v>9031</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>11214</v>
+        <v>11413</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>61969.4</v>
+        <v>65716.61</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>664.33</v>
+        <v>665.6</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>204224.1</v>
+        <v>216135.63</v>
       </c>
     </row>
     <row r="11">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3984.22</v>
+        <v>4345.46</v>
       </c>
     </row>
     <row r="12">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>164757.03</v>
+        <v>175413.94</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3938.48</v>
+        <v>3955.15</v>
       </c>
     </row>
     <row r="14">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>17835.54</v>
+        <v>18599.84</v>
       </c>
     </row>
     <row r="17">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>22931</v>
+        <v>23381</v>
       </c>
     </row>
     <row r="19">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>18248</v>
+        <v>18898</v>
       </c>
     </row>
     <row r="20">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>65664.56</v>
+        <v>68573.31</v>
       </c>
     </row>
     <row r="21">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>84.23999999999999</v>
+        <v>84.64</v>
       </c>
     </row>
     <row r="22">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>20203</v>
+        <v>21090.52</v>
       </c>
     </row>
     <row r="23">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>596.1799999999999</v>
+        <v>612.87</v>
       </c>
     </row>
     <row r="24">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4791.9</v>
+        <v>5126.72</v>
       </c>
     </row>
     <row r="25">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>16.02</v>
+        <v>16.1</v>
       </c>
     </row>
     <row r="26">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2490</v>
+        <v>2689</v>
       </c>
     </row>
     <row r="27">
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2490</v>
+        <v>2689</v>
       </c>
     </row>
     <row r="28">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>183429.52</v>
+        <v>192293.19</v>
       </c>
     </row>
     <row r="29">
@@ -867,7 +867,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4230.15</v>
+        <v>6100.32</v>
       </c>
     </row>
     <row r="30">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>161237.77</v>
+        <v>164194.53</v>
       </c>
     </row>
     <row r="31">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>45042</v>
+        <v>46430</v>
       </c>
     </row>
     <row r="33">
@@ -927,7 +927,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>58129</v>
+        <v>60409</v>
       </c>
     </row>
     <row r="34">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>15493.96</v>
+        <v>16619.27</v>
       </c>
     </row>
     <row r="35">
@@ -957,7 +957,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>305.78</v>
+        <v>310</v>
       </c>
     </row>
     <row r="36">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>9856.799999999999</v>
+        <v>12357.12</v>
       </c>
     </row>
     <row r="37">
@@ -987,7 +987,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>136.39</v>
+        <v>177.7</v>
       </c>
     </row>
     <row r="38">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>489641.2</v>
+        <v>510980.96</v>
       </c>
     </row>
     <row r="39">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>27449.5</v>
+        <v>37886.5</v>
       </c>
     </row>
     <row r="41">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>25251.5</v>
+        <v>36489.5</v>
       </c>
     </row>
     <row r="42">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>236313.5</v>
+        <v>269864.5</v>
       </c>
     </row>
     <row r="43">
@@ -1107,7 +1107,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4371.5</v>
+        <v>4920</v>
       </c>
     </row>
     <row r="46">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4074.5</v>
+        <v>4623</v>
       </c>
     </row>
     <row r="47">
@@ -1167,7 +1167,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>153719</v>
+        <v>170182</v>
       </c>
     </row>
     <row r="50">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>230964</v>
+        <v>252717</v>
       </c>
     </row>
     <row r="51">
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4384280.49</v>
+        <v>4506584.13</v>
       </c>
     </row>
     <row r="52">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>333139.01</v>
+        <v>341457.05</v>
       </c>
     </row>
   </sheetData>

--- a/ec_2025_faro/xlsx/gasto_por_partido_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_por_partido_all.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>43318</v>
+        <v>45861</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>110318</v>
+        <v>116263</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2741121.65</v>
+        <v>3078777.19</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>263091.1</v>
+        <v>269041.28</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9031</v>
+        <v>9131</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>11413</v>
+        <v>11513</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>65716.61</v>
+        <v>68400.7</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>665.6</v>
+        <v>666.87</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>216135.63</v>
+        <v>224886</v>
       </c>
     </row>
     <row r="11">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4345.46</v>
+        <v>4539.25</v>
       </c>
     </row>
     <row r="12">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>175413.94</v>
+        <v>182106.6</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3955.15</v>
+        <v>3969.54</v>
       </c>
     </row>
     <row r="14">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2526.5</v>
+        <v>2625.5</v>
       </c>
     </row>
     <row r="15">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>7877.5</v>
+        <v>7976.5</v>
       </c>
     </row>
     <row r="16">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>18599.84</v>
+        <v>19521.87</v>
       </c>
     </row>
     <row r="17">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>23381</v>
+        <v>23581</v>
       </c>
     </row>
     <row r="19">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>18898</v>
+        <v>19398</v>
       </c>
     </row>
     <row r="20">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>68573.31</v>
+        <v>71952.49000000001</v>
       </c>
     </row>
     <row r="21">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>21090.52</v>
+        <v>22252.17</v>
       </c>
     </row>
     <row r="23">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>612.87</v>
+        <v>620.33</v>
       </c>
     </row>
     <row r="24">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5126.72</v>
+        <v>5709.36</v>
       </c>
     </row>
     <row r="25">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>16.1</v>
+        <v>16.26</v>
       </c>
     </row>
     <row r="26">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>192293.19</v>
+        <v>201488.84</v>
       </c>
     </row>
     <row r="29">
@@ -867,7 +867,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>6100.32</v>
+        <v>7469.73</v>
       </c>
     </row>
     <row r="30">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>164194.53</v>
+        <v>169871.43</v>
       </c>
     </row>
     <row r="31">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>46430</v>
+        <v>49054</v>
       </c>
     </row>
     <row r="33">
@@ -927,7 +927,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>60409</v>
+        <v>64023</v>
       </c>
     </row>
     <row r="34">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>16619.27</v>
+        <v>17319.26</v>
       </c>
     </row>
     <row r="35">
@@ -957,7 +957,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>310</v>
+        <v>315.1</v>
       </c>
     </row>
     <row r="36">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>12357.12</v>
+        <v>12453.83</v>
       </c>
     </row>
     <row r="37">
@@ -987,7 +987,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>177.7</v>
+        <v>205.76</v>
       </c>
     </row>
     <row r="38">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>510980.96</v>
+        <v>522275.95</v>
       </c>
     </row>
     <row r="39">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>37886.5</v>
+        <v>56283.5</v>
       </c>
     </row>
     <row r="41">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>36489.5</v>
+        <v>55686.5</v>
       </c>
     </row>
     <row r="42">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>269864.5</v>
+        <v>285477</v>
       </c>
     </row>
     <row r="43">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1602.22</v>
+        <v>1673.03</v>
       </c>
     </row>
     <row r="45">
@@ -1107,7 +1107,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4920</v>
+        <v>5069.5</v>
       </c>
     </row>
     <row r="46">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4623</v>
+        <v>4772.5</v>
       </c>
     </row>
     <row r="47">
@@ -1137,7 +1137,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>26894.12</v>
+        <v>28409.7</v>
       </c>
     </row>
     <row r="48">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1.03</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="49">
@@ -1167,7 +1167,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>170182</v>
+        <v>194294.5</v>
       </c>
     </row>
     <row r="50">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>252717</v>
+        <v>282321.5</v>
       </c>
     </row>
     <row r="51">
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4506584.13</v>
+        <v>4912575.42</v>
       </c>
     </row>
     <row r="52">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>341457.05</v>
+        <v>349027.1</v>
       </c>
     </row>
   </sheetData>

--- a/ec_2025_faro/xlsx/gasto_por_partido_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_por_partido_all.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>45861</v>
+        <v>50307.5</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>116263</v>
+        <v>125005.5</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3078777.19</v>
+        <v>3283027.51</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>269041.28</v>
+        <v>275040.74</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>68400.7</v>
+        <v>71216.88</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>666.87</v>
+        <v>668.14</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>224886</v>
+        <v>239175.9</v>
       </c>
     </row>
     <row r="11">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4539.25</v>
+        <v>4736.98</v>
       </c>
     </row>
     <row r="12">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>182106.6</v>
+        <v>195784.76</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3969.54</v>
+        <v>3983.56</v>
       </c>
     </row>
     <row r="14">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2625.5</v>
+        <v>2823.5</v>
       </c>
     </row>
     <row r="15">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>7976.5</v>
+        <v>8174.5</v>
       </c>
     </row>
     <row r="16">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>19521.87</v>
+        <v>20373.02</v>
       </c>
     </row>
     <row r="17">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>71952.49000000001</v>
+        <v>77246.85000000001</v>
       </c>
     </row>
     <row r="21">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>84.64</v>
+        <v>91.65000000000001</v>
       </c>
     </row>
     <row r="22">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>22252.17</v>
+        <v>23650.69</v>
       </c>
     </row>
     <row r="23">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>620.33</v>
+        <v>627.63</v>
       </c>
     </row>
     <row r="24">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5709.36</v>
+        <v>6197.13</v>
       </c>
     </row>
     <row r="25">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>16.26</v>
+        <v>17.25</v>
       </c>
     </row>
     <row r="26">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2689</v>
+        <v>2739</v>
       </c>
     </row>
     <row r="27">
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2689</v>
+        <v>2739</v>
       </c>
     </row>
     <row r="28">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>201488.84</v>
+        <v>216188.34</v>
       </c>
     </row>
     <row r="29">
@@ -867,7 +867,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>7469.73</v>
+        <v>8632.58</v>
       </c>
     </row>
     <row r="30">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>169871.43</v>
+        <v>174134.25</v>
       </c>
     </row>
     <row r="31">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>49054</v>
+        <v>50341</v>
       </c>
     </row>
     <row r="33">
@@ -927,7 +927,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>64023</v>
+        <v>65805</v>
       </c>
     </row>
     <row r="34">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>17319.26</v>
+        <v>18661.98</v>
       </c>
     </row>
     <row r="35">
@@ -957,7 +957,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>315.1</v>
+        <v>320.35</v>
       </c>
     </row>
     <row r="36">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>12453.83</v>
+        <v>15192.32</v>
       </c>
     </row>
     <row r="37">
@@ -987,7 +987,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>205.76</v>
+        <v>233.3</v>
       </c>
     </row>
     <row r="38">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>522275.95</v>
+        <v>550215.86</v>
       </c>
     </row>
     <row r="39">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>56283.5</v>
+        <v>60181.5</v>
       </c>
     </row>
     <row r="41">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>55686.5</v>
+        <v>59386.5</v>
       </c>
     </row>
     <row r="42">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>285477</v>
+        <v>321356.5</v>
       </c>
     </row>
     <row r="43">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1673.03</v>
+        <v>1804.53</v>
       </c>
     </row>
     <row r="45">
@@ -1107,7 +1107,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5069.5</v>
+        <v>5665</v>
       </c>
     </row>
     <row r="46">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4772.5</v>
+        <v>5269</v>
       </c>
     </row>
     <row r="47">
@@ -1137,7 +1137,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>28409.7</v>
+        <v>29420.8</v>
       </c>
     </row>
     <row r="48">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1.26</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="49">
@@ -1167,7 +1167,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>194294.5</v>
+        <v>204769.5</v>
       </c>
     </row>
     <row r="50">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>282321.5</v>
+        <v>297290.5</v>
       </c>
     </row>
     <row r="51">
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4912575.42</v>
+        <v>5243647.32</v>
       </c>
     </row>
     <row r="52">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>349027.1</v>
+        <v>356450.83</v>
       </c>
     </row>
   </sheetData>

--- a/ec_2025_faro/xlsx/gasto_por_partido_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_por_partido_all.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>50307.5</v>
+        <v>51757</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>125005.5</v>
+        <v>126755</v>
       </c>
     </row>
     <row r="4">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>50341</v>
+        <v>51677.5</v>
       </c>
     </row>
     <row r="33">
@@ -927,7 +927,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>65805</v>
+        <v>67636.5</v>
       </c>
     </row>
     <row r="34">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>60181.5</v>
+        <v>62481.5</v>
       </c>
     </row>
     <row r="41">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>59386.5</v>
+        <v>61986.5</v>
       </c>
     </row>
     <row r="42">
@@ -1107,7 +1107,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5665</v>
+        <v>6210.5</v>
       </c>
     </row>
     <row r="46">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5269</v>
+        <v>5715.5</v>
       </c>
     </row>
     <row r="47">
@@ -1167,7 +1167,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>204769.5</v>
+        <v>210401</v>
       </c>
     </row>
     <row r="50">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>297290.5</v>
+        <v>303918</v>
       </c>
     </row>
     <row r="51">

--- a/ec_2025_faro/xlsx/gasto_por_partido_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_por_partido_all.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>51757</v>
+        <v>47766</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>126755</v>
+        <v>119463</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3283027.51</v>
+        <v>3261065.93</v>
       </c>
     </row>
     <row r="5">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>71216.88</v>
+        <v>71206.16</v>
       </c>
     </row>
     <row r="9">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>239175.9</v>
+        <v>238016.4</v>
       </c>
     </row>
     <row r="11">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4736.98</v>
+        <v>4735.96</v>
       </c>
     </row>
     <row r="12">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>195784.76</v>
+        <v>195526.54</v>
       </c>
     </row>
     <row r="13">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3983.56</v>
+        <v>3975.84</v>
       </c>
     </row>
     <row r="14">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2823.5</v>
+        <v>2625.5</v>
       </c>
     </row>
     <row r="15">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>8174.5</v>
+        <v>7976.5</v>
       </c>
     </row>
     <row r="16">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>20373.02</v>
+        <v>20369.01</v>
       </c>
     </row>
     <row r="17">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>77246.85000000001</v>
+        <v>77064.35000000001</v>
       </c>
     </row>
     <row r="21">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>91.65000000000001</v>
+        <v>84.64</v>
       </c>
     </row>
     <row r="22">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>23650.69</v>
+        <v>23632.16</v>
       </c>
     </row>
     <row r="23">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>627.63</v>
+        <v>625.9</v>
       </c>
     </row>
     <row r="24">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>6197.13</v>
+        <v>6187.15</v>
       </c>
     </row>
     <row r="25">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>17.25</v>
+        <v>16.02</v>
       </c>
     </row>
     <row r="26">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>216188.34</v>
+        <v>215632.84</v>
       </c>
     </row>
     <row r="29">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>174134.25</v>
+        <v>174088.45</v>
       </c>
     </row>
     <row r="31">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>51677.5</v>
+        <v>47816.5</v>
       </c>
     </row>
     <row r="33">
@@ -927,7 +927,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>67636.5</v>
+        <v>62290.5</v>
       </c>
     </row>
     <row r="34">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>18661.98</v>
+        <v>18608.51</v>
       </c>
     </row>
     <row r="35">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>15192.32</v>
+        <v>15189.02</v>
       </c>
     </row>
     <row r="37">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>550215.86</v>
+        <v>549367.8199999999</v>
       </c>
     </row>
     <row r="39">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>62481.5</v>
+        <v>61083.5</v>
       </c>
     </row>
     <row r="41">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1804.53</v>
+        <v>1801.55</v>
       </c>
     </row>
     <row r="45">
@@ -1107,7 +1107,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>6210.5</v>
+        <v>5269.5</v>
       </c>
     </row>
     <row r="46">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5715.5</v>
+        <v>4972.5</v>
       </c>
     </row>
     <row r="47">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1.57</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="49">
@@ -1167,7 +1167,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>210401</v>
+        <v>200012</v>
       </c>
     </row>
     <row r="50">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>303918</v>
+        <v>290339</v>
       </c>
     </row>
     <row r="51">
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5243647.32</v>
+        <v>5218533.19</v>
       </c>
     </row>
     <row r="52">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>356450.83</v>
+        <v>356431.58</v>
       </c>
     </row>
   </sheetData>

--- a/ec_2025_faro/xlsx/gasto_por_partido_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_por_partido_all.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>32323</v>
+        <v>81432.5</v>
       </c>
     </row>
     <row r="3">
@@ -477,37 +477,82 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>41233</v>
+        <v>90342.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Todos</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>32323</v>
+        <v>3725</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Todos</t>
+          <t>(ADN) - D. Noboa - M. Pinto</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3068.8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>Instagram</t>
         </is>
       </c>
-      <c r="C5" t="n">
-        <v>41233</v>
+      <c r="C7" t="n">
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>54843.92</v>
       </c>
     </row>
   </sheetData>

--- a/ec_2025_faro/xlsx/gasto_por_partido_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_por_partido_all.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>81432.5</v>
+        <v>62762.5</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>90342.5</v>
+        <v>94640.5</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3725</v>
+        <v>5662.5</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3068.8</v>
+        <v>4664.25</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>54843.92</v>
+        <v>25444.95</v>
       </c>
     </row>
   </sheetData>

--- a/ec_2025_faro/xlsx/gasto_por_partido_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_por_partido_all.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>62762.5</v>
+        <v>67504</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>94640.5</v>
+        <v>99382</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5662.5</v>
+        <v>7648</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4664.25</v>
+        <v>6268.4</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>49.5</v>
+        <v>693</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>49.5</v>
+        <v>891</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>25444.95</v>
+        <v>36540.45</v>
       </c>
     </row>
   </sheetData>

--- a/ec_2025_faro/xlsx/gasto_por_partido_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_por_partido_all.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>67504</v>
+        <v>86078.5</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>99382</v>
+        <v>119955.5</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7648</v>
+        <v>32183</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6268.4</v>
+        <v>9485.1</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>693</v>
+        <v>1237.5</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>891</v>
+        <v>1435.5</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>36540.45</v>
+        <v>57717.85</v>
       </c>
     </row>
   </sheetData>

--- a/ec_2025_faro/xlsx/gasto_por_partido_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_por_partido_all.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>86078.5</v>
+        <v>97017</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>119955.5</v>
+        <v>131693</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>32183</v>
+        <v>39752.5</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9485.1</v>
+        <v>15587.25</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>57717.85</v>
+        <v>60641.89</v>
       </c>
     </row>
   </sheetData>

--- a/ec_2025_faro/xlsx/gasto_por_partido_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_por_partido_all.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>97017</v>
+        <v>103400</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>131693</v>
+        <v>138776</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>39752.5</v>
+        <v>46769</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15587.25</v>
+        <v>25496.92</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1237.5</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1435.5</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>60641.89</v>
+        <v>69129.53</v>
       </c>
     </row>
   </sheetData>

--- a/ec_2025_faro/xlsx/gasto_por_partido_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_por_partido_all.xlsx
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>46769</v>
+        <v>57060.5</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>25496.92</v>
+        <v>38369.72</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>69129.53</v>
+        <v>73547.61</v>
       </c>
     </row>
   </sheetData>

--- a/ec_2025_faro/xlsx/gasto_por_partido_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_por_partido_all.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>103400</v>
+        <v>128161</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>138776</v>
+        <v>176902</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>57060.5</v>
+        <v>78733.5</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>38369.72</v>
+        <v>49941.74</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2079</v>
+        <v>2524.5</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2376</v>
+        <v>3019.5</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>73547.61</v>
+        <v>82639.03</v>
       </c>
     </row>
   </sheetData>

--- a/ec_2025_faro/xlsx/gasto_por_partido_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_por_partido_all.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>128161</v>
+        <v>139402</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>176902</v>
+        <v>188143</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>78733.5</v>
+        <v>97936.5</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>49941.74</v>
+        <v>61122.9</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2524.5</v>
+        <v>2673.5</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3019.5</v>
+        <v>3368.5</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>82639.03</v>
+        <v>91442.52</v>
       </c>
     </row>
   </sheetData>

--- a/ec_2025_faro/xlsx/gasto_por_partido_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_por_partido_all.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>139402</v>
+        <v>152806.5</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>188143</v>
+        <v>203824.5</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>97936.5</v>
+        <v>264949.5</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>61122.9</v>
+        <v>72204.33</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2673.5</v>
+        <v>2972.5</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3368.5</v>
+        <v>3667.5</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>91442.52</v>
+        <v>98818.96000000001</v>
       </c>
     </row>
   </sheetData>

--- a/ec_2025_faro/xlsx/gasto_por_partido_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_por_partido_all.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>152806.5</v>
+        <v>168587.5</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>203824.5</v>
+        <v>219605.5</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>264949.5</v>
+        <v>333036.5</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>72204.33</v>
+        <v>74903.94</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2972.5</v>
+        <v>3522</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3667.5</v>
+        <v>4217</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>98818.96000000001</v>
+        <v>102888.75</v>
       </c>
     </row>
   </sheetData>

--- a/ec_2025_faro/xlsx/gasto_por_partido_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_por_partido_all.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>168587.5</v>
+        <v>194309.5</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>219605.5</v>
+        <v>245327.5</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>333036.5</v>
+        <v>448011.5</v>
       </c>
     </row>
     <row r="5">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3522</v>
+        <v>5322</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4217</v>
+        <v>6017</v>
       </c>
     </row>
     <row r="8">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>102888.75</v>
+        <v>110000.26</v>
       </c>
     </row>
   </sheetData>

--- a/ec_2025_faro/xlsx/gasto_por_partido_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_por_partido_all.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>194309.5</v>
+        <v>210925.5</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>245327.5</v>
+        <v>261943.5</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>448011.5</v>
+        <v>522639.5</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>74903.94</v>
+        <v>79320.86</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5322</v>
+        <v>6872</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6017</v>
+        <v>7567</v>
       </c>
     </row>
     <row r="8">
@@ -548,11 +548,26 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>X</t>
         </is>
       </c>
-      <c r="C8" t="n">
-        <v>110000.26</v>
+      <c r="C9" t="n">
+        <v>113569.47</v>
       </c>
     </row>
   </sheetData>

--- a/ec_2025_faro/xlsx/gasto_por_partido_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_por_partido_all.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>210925.5</v>
+        <v>237651.5</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>261943.5</v>
+        <v>288663.5</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>522639.5</v>
+        <v>615962.5</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>79320.86</v>
+        <v>82826.17</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6872</v>
+        <v>9522</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7567</v>
+        <v>10217</v>
       </c>
     </row>
     <row r="8">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>113569.47</v>
+        <v>115293.88</v>
       </c>
     </row>
   </sheetData>

--- a/ec_2025_faro/xlsx/gasto_por_partido_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_por_partido_all.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>237651.5</v>
+        <v>283250.5</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>288663.5</v>
+        <v>331862.5</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>615962.5</v>
+        <v>623521</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>82826.17</v>
+        <v>86528.42</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9522</v>
+        <v>12172</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10217</v>
+        <v>12867</v>
       </c>
     </row>
     <row r="8">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>115293.88</v>
+        <v>116998.63</v>
       </c>
     </row>
   </sheetData>

--- a/ec_2025_faro/xlsx/gasto_por_partido_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_por_partido_all.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>283250.5</v>
+        <v>326398</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>331862.5</v>
+        <v>375304</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>623521</v>
+        <v>625611.5</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>86528.42</v>
+        <v>87755.38</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12172</v>
+        <v>14822</v>
       </c>
     </row>
     <row r="7">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>12867</v>
+        <v>15517</v>
       </c>
     </row>
     <row r="8">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>116998.63</v>
+        <v>117335.57</v>
       </c>
     </row>
   </sheetData>

--- a/ec_2025_faro/xlsx/gasto_por_partido_all.xlsx
+++ b/ec_2025_faro/xlsx/gasto_por_partido_all.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>326398</v>
+        <v>63070</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>375304</v>
+        <v>142690</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>625611.5</v>
+        <v>3261065.93</v>
       </c>
     </row>
     <row r="5">
@@ -507,13 +507,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>87755.38</v>
+        <v>451762.57</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
+          <t>(AMIGO) - J. Cueva - C. Reyes</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>14822</v>
+        <v>9131</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
+          <t>(AMIGO) - J. Cueva - C. Reyes</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>15517</v>
+        <v>11513</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>(RC/RETO) - L. González - D. Borja</t>
+          <t>(AMIGO) - J. Cueva - C. Reyes</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -552,22 +552,622 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>152</v>
+        <v>71206.16</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>(AMIGO) - J. Cueva - C. Reyes</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>5058.22</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>(AVANZA) - L. Tilleria - K. Rosero</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>237125.62</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>(AVANZA) - L. Tilleria - K. Rosero</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>18589.34</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>(CD) - J. Jairala - L. Vallecilla</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>195526.54</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>(CD) - J. Jairala - L. Vallecilla</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>9506.02</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>(CONSTRUYE) - H. Cucalón - C. Larrea</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2625.5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>(CONSTRUYE) - H. Cucalón - C. Larrea</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>7976.5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>(CONSTRUYE) - H. Cucalón - C. Larrea</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>20369.01</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>(CONSTRUYE) - H. Cucalón - C. Larrea</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>29491.39</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>(CREO) - F. Tabacchi - B. Sacancela</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>23581</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>(CREO) - F. Tabacchi - B. Sacancela</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>19398</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>(CREO) - F. Tabacchi - B. Sacancela</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>77064.35000000001</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>(CREO) - F. Tabacchi - B. Sacancela</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>4345.43</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>(DSI) - I. Saquicela - M. Coello</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>18284.16</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>(DSI) - I. Saquicela - M. Coello</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>2789.64</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>(ID) - C. Rabascall - A. Rivas</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>6187.15</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>(ID) - C. Rabascall - A. Rivas</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>606.28</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>(MUPP) - L. Iza - K. Molina</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>2739</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>(MUPP) - L. Iza - K. Molina</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>2739</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>(MUPP) - L. Iza - K. Molina</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>215632.84</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>(MUPP) - L. Iza - K. Molina</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>18836.25</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>(PID) - V. Araus - C. Carrera</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>174088.45</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>(PID) - V. Araus - C. Carrera</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>405.8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>(PSC) - H. Kronfle - D. Passailaigue</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>46468</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>(PSC) - H. Kronfle - D. Passailaigue</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>60942</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>(PSC) - H. Kronfle - D. Passailaigue</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>17859.63</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>(PSC) - H. Kronfle - D. Passailaigue</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>4990.75</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>(PSE) - P. Granja - V. Silva</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>15189.02</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>(PSE) - P. Granja - V. Silva</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>23005.88</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>(PSP) - A. González - G. Moncayo</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>549367.8199999999</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>(PSP) - A. González - G. Moncayo</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>67944.11</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
           <t>(RC/RETO) - L. González - D. Borja</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>117335.57</v>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>61932</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>62835</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>321356.5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>(RC/RETO) - L. González - D. Borja</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>199216.5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>(SUMA) - E. Gómez - I. Díaz</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>1801.55</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>(SUMA) - E. Gómez - I. Díaz</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>313.82</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>(UP) - J. Escala - P. Terán</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>5269.5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>(UP) - J. Escala - P. Terán</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>4972.5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>(UP) - J. Escala - P. Terán</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Tiktok</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>29420.8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>(UP) - J. Escala - P. Terán</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>1936.17</v>
       </c>
     </row>
   </sheetData>
